--- a/data/trans_dic/P25_12-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25_12-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece trastornos de ansiedad</t>
+          <t>Población que padece trastornos de ansiedad (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>9,93%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>9,8%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>14,12%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>11,77%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>15,59%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>14,28%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>18,83%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>22,06%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>10,46%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>11,04%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>10,64%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>25,0%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>10,73%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>11,42%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>10,96%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>14,59%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>16,02%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>18,5%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,61; 9,67</t>
+          <t>4,71; 10,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,63; 9,04</t>
+          <t>4,83; 10,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,1; 9,36</t>
+          <t>5,24; 9,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,89; 12,36</t>
+          <t>7,52; 13,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,55; 16,93</t>
+          <t>7,66; 11,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,11; 17,97</t>
+          <t>9,42; 14,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,5; 16,49</t>
+          <t>11,69; 16,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,21; 25,1</t>
+          <t>13,31; 18,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,69; 12,49</t>
+          <t>11,8; 16,55</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,49; 12,88</t>
+          <t>15,84; 22,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,2; 12,41</t>
+          <t>19,29; 24,92</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,21; 18,11</t>
+          <t>22,11; 28,05</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>9,01; 12,69</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>9,85; 13,32</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>9,48; 12,67</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>12,58; 16,9</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>14,21; 17,82</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>16,51; 20,36</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>10,14%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>4,88%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>14,69%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>20,81%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>10,07%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>10,9%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>10,79%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>16,78%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>12,6%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>14,97%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 7,65</t>
+          <t>3,28; 7,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,08; 8,32</t>
+          <t>4,16; 8,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,99; 11,83</t>
+          <t>5,11; 11,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 8,36</t>
+          <t>7,48; 13,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,6; 18,48</t>
+          <t>2,77; 8,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,68; 18,69</t>
+          <t>6,54; 13,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,12; 16,89</t>
+          <t>12,16; 19,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,13; 27,48</t>
+          <t>13,03; 19,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,87; 12,08</t>
+          <t>11,58; 18,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,01; 12,9</t>
+          <t>19,67; 27,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,73; 12,77</t>
+          <t>15,81; 26,93</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,33; 16,05</t>
+          <t>15,75; 26,91</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>8,07; 12,59</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>9,05; 12,77</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>8,92; 13,62</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>14,2; 19,46</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>9,75; 16,08</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>12,16; 18,66</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>11,59%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>14,29%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>20,84%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>17,64%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>19,52%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>9,16%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>13,5%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>12,31%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>7,79%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>13,7%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>12,32%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>15,5%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 9,34</t>
+          <t>1,98; 10,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,36; 11,95</t>
+          <t>3,06; 11,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 12,09</t>
+          <t>3,43; 12,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>6,6; 19,02</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>8,55; 24,41</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,07; 27,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,88; 24,12</t>
+          <t>6,56; 17,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>15,25; 27,66</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>12,61; 24,62</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>13,27; 28,56</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>5,93; 15,07</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>9,9; 17,61</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>9,19; 16,09</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>4,95; 11,68</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>10,48; 18,57</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>8,82; 16,09</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>11,42; 21,19</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>10,22%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>8,62%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>14,36%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>16,26%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14,63%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>20,67%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>21,85%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>10,04%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>11,21%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>10,81%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>24,08%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>10,13%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>11,49%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>11,06%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>15,56%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>15,24%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>17,69%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,26; 7,35</t>
+          <t>4,47; 7,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 7,74</t>
+          <t>5,19; 8,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,72; 9,09</t>
+          <t>5,77; 9,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,98; 10,34</t>
+          <t>8,48; 12,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,51; 16,53</t>
+          <t>7,04; 10,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,23; 18,02</t>
+          <t>9,36; 13,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,68; 16,39</t>
+          <t>12,33; 16,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,42; 24,73</t>
+          <t>14,52; 18,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,77; 11,46</t>
+          <t>12,79; 16,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,1; 12,36</t>
+          <t>18,32; 23,23</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,74; 12,16</t>
+          <t>19,6; 24,89</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,78; 17,06</t>
+          <t>21,51; 26,73</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>9,02; 11,52</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>10,27; 12,8</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>9,91; 12,35</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>14,13; 17,3</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>13,67; 16,93</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>16,12; 19,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece trastornos de ansiedad (tasa de respuesta: 99,88%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>269.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>111625</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>112004</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>120202</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>162500</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>22484</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>26822</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>258662</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>284497</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>259121</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>338938</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>52127</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>59078</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>370287</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>396500</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>379323</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>501438</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>74610</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>85901</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>77807; 165727</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>79525; 165279</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>86138; 159793</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>123067; 215426</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>17580; 27175</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>21465; 32763</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>210211; 302451</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>242990; 329909</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>214198; 300326</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>285125; 402957</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>45580; 58875</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>52238; 66273</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>311019; 437815</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>342135; 462594</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>328160; 438506</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>432247; 580907</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>66172; 83012</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>76634; 94504</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>67865</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>82854</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>101730</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>140141</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3515</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>209248</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>216783</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>196004</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>323805</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>13821</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>13881</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>277113</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>299637</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>297734</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>463946</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>17336</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>20912</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>44874; 106450</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>57244; 114944</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>70531; 163507</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>103394; 187878</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1994; 5887</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4775; 10203</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>168161; 267952</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>178819; 267224</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>159742; 254044</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>272021; 384182</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>10364; 17659</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>10502; 17948</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>222007; 346490</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>248728; 350942</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>245941; 375633</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>392580; 538176</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>13417; 22121</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>16988; 26065</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>19973</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>28917</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>30217</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>48995</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>44704</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>84745</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>72657</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>80416</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>64677</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>113662</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>102874</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>129411</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8374; 43715</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12942; 49982</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14523; 51433</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>27914; 80405</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>26707; 69774</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>61985; 112436</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>51927; 101393</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>54638; 117637</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>41117; 96965</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>86895; 154008</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>73635; 134308</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>95301; 176856</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>272.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>355.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>354.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>383.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>329.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>386.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>199463</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>223775</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>252149</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>351636</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>33853</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>512613</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>586025</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>527782</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>743160</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>65948</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>72959</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>712077</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>809800</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>779931</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1094795</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>91947</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>106812</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>153794; 267267</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>179041; 281897</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>198842; 323813</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>291876; 431265</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>21224; 32839</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>28150; 40250</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>442220; 581145</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>523374; 654491</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>461100; 595261</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>658464; 835154</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>59168; 75139</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>65166; 80989</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>634159; 810013</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>724047; 902643</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>699061; 870891</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>994530; 1217450</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>82453; 102161</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>97328; 116876</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
